--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/NEVADA_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/NEVADA_2017.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1404"/>
+  <dimension ref="A1:D1398"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C10">
@@ -561,7 +561,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C15">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C33">
@@ -1109,7 +1109,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C56">
@@ -1187,7 +1187,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C62">
@@ -1660,7 +1660,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C98">
@@ -1686,7 +1686,7 @@
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C100">
@@ -1745,7 +1745,7 @@
         <v>155</v>
       </c>
       <c r="D104">
-        <v>0.009208103130755065</v>
+        <v>0.009208103130755063</v>
       </c>
     </row>
     <row r="105">
@@ -1920,7 +1920,7 @@
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C118">
@@ -1933,7 +1933,7 @@
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C119">
@@ -1992,7 +1992,7 @@
         <v>16</v>
       </c>
       <c r="D123">
-        <v>0.0009505138715618131</v>
+        <v>0.0009505138715618132</v>
       </c>
     </row>
     <row r="124">
@@ -2011,7 +2011,7 @@
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C125">
@@ -2236,7 +2236,7 @@
         <v>16</v>
       </c>
       <c r="D141">
-        <v>0.0009505138715618131</v>
+        <v>0.0009505138715618132</v>
       </c>
     </row>
     <row r="142">
@@ -2320,7 +2320,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C148">
@@ -2346,7 +2346,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2403,7 +2403,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C154">
@@ -2603,7 +2603,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C169">
@@ -2785,7 +2785,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C183">
@@ -2915,7 +2915,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C193">
@@ -2928,7 +2928,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C194">
@@ -2941,7 +2941,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C195">
@@ -3058,12 +3058,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C204">
@@ -3089,7 +3089,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C206">
@@ -3102,7 +3102,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C207">
@@ -3180,7 +3180,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C213">
@@ -3271,7 +3271,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C220">
@@ -3349,7 +3349,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C226">
@@ -3401,7 +3401,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C230">
@@ -3544,7 +3544,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C241">
@@ -3648,7 +3648,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C249">
@@ -3661,7 +3661,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C250">
@@ -3674,7 +3674,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C251">
@@ -3700,7 +3700,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C253">
@@ -3804,7 +3804,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C261">
@@ -3928,13 +3928,13 @@
         <v>16</v>
       </c>
       <c r="D270">
-        <v>0.0009505138715618131</v>
+        <v>0.0009505138715618132</v>
       </c>
     </row>
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C271">
@@ -4012,7 +4012,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C277">
@@ -4025,7 +4025,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C278">
@@ -4038,7 +4038,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C279">
@@ -4160,7 +4160,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C288">
@@ -4173,7 +4173,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C289">
@@ -4186,7 +4186,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C290">
@@ -4264,7 +4264,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C296">
@@ -4316,7 +4316,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C300">
@@ -4407,7 +4407,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C307">
@@ -4459,7 +4459,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C311">
@@ -4485,7 +4485,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C313">
@@ -4511,7 +4511,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C315">
@@ -4537,7 +4537,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C317">
@@ -4602,7 +4602,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C322">
@@ -4685,7 +4685,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C328">
@@ -4711,7 +4711,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C330">
@@ -4750,7 +4750,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C333">
@@ -4776,7 +4776,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C335">
@@ -4789,7 +4789,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C336">
@@ -4828,7 +4828,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C339">
@@ -4841,7 +4841,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C340">
@@ -4854,7 +4854,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C341">
@@ -4867,7 +4867,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C342">
@@ -4919,7 +4919,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C346">
@@ -4932,7 +4932,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C347">
@@ -4984,7 +4984,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C351">
@@ -4997,7 +4997,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C352">
@@ -5056,7 +5056,7 @@
         <v>16</v>
       </c>
       <c r="D356">
-        <v>0.0009505138715618131</v>
+        <v>0.0009505138715618132</v>
       </c>
     </row>
     <row r="357">
@@ -5075,7 +5075,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C358">
@@ -5088,7 +5088,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C359">
@@ -5114,7 +5114,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C361">
@@ -5127,7 +5127,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C362">
@@ -5153,7 +5153,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C364">
@@ -5348,7 +5348,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C379">
@@ -5374,7 +5374,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C381">
@@ -5400,7 +5400,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C383">
@@ -5426,7 +5426,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C385">
@@ -5465,7 +5465,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C388">
@@ -5478,7 +5478,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C389">
@@ -5639,7 +5639,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C401">
@@ -5691,7 +5691,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C405">
@@ -5756,7 +5756,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C410">
@@ -5795,7 +5795,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C413">
@@ -5873,7 +5873,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C419">
@@ -5886,7 +5886,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C420">
@@ -5899,7 +5899,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C421">
@@ -5912,7 +5912,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C422">
@@ -5938,7 +5938,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C424">
@@ -5951,7 +5951,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C425">
@@ -6016,7 +6016,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C430">
@@ -6055,7 +6055,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C433">
@@ -6081,7 +6081,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C435">
@@ -6107,7 +6107,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C437">
@@ -6198,7 +6198,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C444">
@@ -6211,7 +6211,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C445">
@@ -6224,7 +6224,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C446">
@@ -6263,7 +6263,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C449">
@@ -6333,7 +6333,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C454">
@@ -6346,7 +6346,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C455">
@@ -6411,7 +6411,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C460">
@@ -6450,7 +6450,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C463">
@@ -6463,7 +6463,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C464">
@@ -6593,7 +6593,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C474">
@@ -6606,7 +6606,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C475">
@@ -6710,7 +6710,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C483">
@@ -6801,7 +6801,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C490">
@@ -6814,7 +6814,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C491">
@@ -6827,7 +6827,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C492">
@@ -6879,7 +6879,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C496">
@@ -6944,7 +6944,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C501">
@@ -7035,7 +7035,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C508">
@@ -7100,7 +7100,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C513">
@@ -7126,7 +7126,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C515">
@@ -7139,7 +7139,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C516">
@@ -7165,7 +7165,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C518">
@@ -7191,7 +7191,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C520">
@@ -7204,7 +7204,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C521">
@@ -7217,7 +7217,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C522">
@@ -7230,7 +7230,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C523">
@@ -7269,7 +7269,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C526">
@@ -7282,7 +7282,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C527">
@@ -7321,7 +7321,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C530">
@@ -7360,7 +7360,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C533">
@@ -7373,7 +7373,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C534">
@@ -7412,7 +7412,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C537">
@@ -7425,7 +7425,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C538">
@@ -7581,7 +7581,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C550">
@@ -7594,7 +7594,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C551">
@@ -7607,7 +7607,7 @@
     <row r="552">
       <c r="B552" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C552">
@@ -7672,7 +7672,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C557">
@@ -7685,7 +7685,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C558">
@@ -7724,7 +7724,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C561">
@@ -7737,7 +7737,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C562">
@@ -7750,7 +7750,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C563">
@@ -8093,7 +8093,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C589">
@@ -8106,7 +8106,7 @@
     <row r="590">
       <c r="B590" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C590">
@@ -8126,7 +8126,7 @@
         <v>16</v>
       </c>
       <c r="D591">
-        <v>0.0009505138715618131</v>
+        <v>0.0009505138715618132</v>
       </c>
     </row>
     <row r="592">
@@ -8334,7 +8334,7 @@
         <v>16</v>
       </c>
       <c r="D607">
-        <v>0.0009505138715618131</v>
+        <v>0.0009505138715618132</v>
       </c>
     </row>
     <row r="608">
@@ -8646,7 +8646,7 @@
         <v>16</v>
       </c>
       <c r="D631">
-        <v>0.0009505138715618131</v>
+        <v>0.0009505138715618132</v>
       </c>
     </row>
     <row r="632">
@@ -8951,7 +8951,7 @@
     <row r="655">
       <c r="B655" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C655">
@@ -9385,7 +9385,7 @@
     <row r="688">
       <c r="B688" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C688">
@@ -9424,7 +9424,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C691">
@@ -9502,7 +9502,7 @@
     <row r="697">
       <c r="B697" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C697">
@@ -9593,7 +9593,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C704">
@@ -9650,7 +9650,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C708">
@@ -9663,7 +9663,7 @@
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C709">
@@ -9715,7 +9715,7 @@
     <row r="713">
       <c r="B713" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C713">
@@ -9735,7 +9735,7 @@
         <v>16</v>
       </c>
       <c r="D714">
-        <v>0.0009505138715618131</v>
+        <v>0.0009505138715618132</v>
       </c>
     </row>
     <row r="715">
@@ -9806,7 +9806,7 @@
     <row r="720">
       <c r="B720" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C720">
@@ -9993,7 +9993,7 @@
     <row r="734">
       <c r="B734" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C734">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C736">
@@ -10050,7 +10050,7 @@
     <row r="738">
       <c r="B738" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C738">
@@ -10076,7 +10076,7 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C740">
@@ -10089,7 +10089,7 @@
     <row r="741">
       <c r="B741" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C741">
@@ -10102,7 +10102,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C742">
@@ -10128,7 +10128,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C744">
@@ -10141,7 +10141,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C745">
@@ -10154,7 +10154,7 @@
     <row r="746">
       <c r="B746" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C746">
@@ -10167,7 +10167,7 @@
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C747">
@@ -10180,7 +10180,7 @@
     <row r="748">
       <c r="B748" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C748">
@@ -10206,7 +10206,7 @@
     <row r="750">
       <c r="B750" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C750">
@@ -10219,7 +10219,7 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C751">
@@ -10271,7 +10271,7 @@
     <row r="755">
       <c r="B755" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C755">
@@ -10284,7 +10284,7 @@
     <row r="756">
       <c r="B756" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C756">
@@ -10323,7 +10323,7 @@
     <row r="759">
       <c r="B759" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C759">
@@ -10336,7 +10336,7 @@
     <row r="760">
       <c r="B760" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C760">
@@ -10349,7 +10349,7 @@
     <row r="761">
       <c r="B761" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C761">
@@ -10362,7 +10362,7 @@
     <row r="762">
       <c r="B762" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C762">
@@ -10388,7 +10388,7 @@
     <row r="764">
       <c r="B764" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C764">
@@ -10518,7 +10518,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>San Baltazar Yatzachi el Bajo</t>
+          <t>San Baltazar Yatzachi El Bajo</t>
         </is>
       </c>
       <c r="C774">
@@ -10544,7 +10544,7 @@
     <row r="776">
       <c r="B776" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C776">
@@ -10869,7 +10869,7 @@
     <row r="801">
       <c r="B801" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C801">
@@ -10882,7 +10882,7 @@
     <row r="802">
       <c r="B802" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C802">
@@ -11090,7 +11090,7 @@
     <row r="818">
       <c r="B818" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C818">
@@ -11467,7 +11467,7 @@
     <row r="847">
       <c r="B847" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C847">
@@ -11506,7 +11506,7 @@
     <row r="850">
       <c r="B850" t="inlineStr">
         <is>
-          <t>Santa Inés de Zaragoza</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C850">
@@ -11519,7 +11519,7 @@
     <row r="851">
       <c r="B851" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C851">
@@ -11558,7 +11558,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>Santa María del Tule</t>
+          <t>Santa María Del Tule</t>
         </is>
       </c>
       <c r="C854">
@@ -11922,7 +11922,7 @@
     <row r="882">
       <c r="B882" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C882">
@@ -12026,7 +12026,7 @@
     <row r="890">
       <c r="B890" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C890">
@@ -12039,7 +12039,7 @@
     <row r="891">
       <c r="B891" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C891">
@@ -12052,7 +12052,7 @@
     <row r="892">
       <c r="B892" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C892">
@@ -12065,7 +12065,7 @@
     <row r="893">
       <c r="B893" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C893">
@@ -12078,7 +12078,7 @@
     <row r="894">
       <c r="B894" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C894">
@@ -12091,7 +12091,7 @@
     <row r="895">
       <c r="B895" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C895">
@@ -12104,7 +12104,7 @@
     <row r="896">
       <c r="B896" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C896">
@@ -12143,7 +12143,7 @@
     <row r="899">
       <c r="B899" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C899">
@@ -12156,7 +12156,7 @@
     <row r="900">
       <c r="B900" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C900">
@@ -12169,7 +12169,7 @@
     <row r="901">
       <c r="B901" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C901">
@@ -12182,7 +12182,7 @@
     <row r="902">
       <c r="B902" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C902">
@@ -12221,7 +12221,7 @@
     <row r="905">
       <c r="B905" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C905">
@@ -12234,7 +12234,7 @@
     <row r="906">
       <c r="B906" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C906">
@@ -12525,7 +12525,7 @@
     <row r="928">
       <c r="B928" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C928">
@@ -12694,7 +12694,7 @@
     <row r="941">
       <c r="B941" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C941">
@@ -12720,7 +12720,7 @@
     <row r="943">
       <c r="B943" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C943">
@@ -12733,7 +12733,7 @@
     <row r="944">
       <c r="B944" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C944">
@@ -12889,7 +12889,7 @@
     <row r="956">
       <c r="B956" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C956">
@@ -12967,7 +12967,7 @@
     <row r="962">
       <c r="B962" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C962">
@@ -13084,7 +13084,7 @@
     <row r="971">
       <c r="B971" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C971">
@@ -13162,7 +13162,7 @@
     <row r="977">
       <c r="B977" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C977">
@@ -13357,7 +13357,7 @@
     <row r="992">
       <c r="B992" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C992">
@@ -13383,7 +13383,7 @@
     <row r="994">
       <c r="B994" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C994">
@@ -13396,7 +13396,7 @@
     <row r="995">
       <c r="B995" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C995">
@@ -13565,7 +13565,7 @@
     <row r="1008">
       <c r="B1008" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1008">
@@ -13578,7 +13578,7 @@
     <row r="1009">
       <c r="B1009" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1009">
@@ -13630,7 +13630,7 @@
     <row r="1013">
       <c r="B1013" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1013">
@@ -13656,7 +13656,7 @@
     <row r="1015">
       <c r="B1015" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1015">
@@ -13721,7 +13721,7 @@
     <row r="1020">
       <c r="B1020" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1020">
@@ -13825,7 +13825,7 @@
     <row r="1028">
       <c r="B1028" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C1028">
@@ -13877,7 +13877,7 @@
     <row r="1032">
       <c r="B1032" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C1032">
@@ -13916,7 +13916,7 @@
     <row r="1035">
       <c r="B1035" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C1035">
@@ -14064,7 +14064,7 @@
       </c>
       <c r="B1046" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1046">
@@ -14090,7 +14090,7 @@
     <row r="1048">
       <c r="B1048" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1048">
@@ -14142,7 +14142,7 @@
     <row r="1052">
       <c r="B1052" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1052">
@@ -14181,7 +14181,7 @@
     <row r="1055">
       <c r="B1055" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1055">
@@ -14220,7 +14220,7 @@
     <row r="1058">
       <c r="B1058" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1058">
@@ -14399,7 +14399,7 @@
     <row r="1071">
       <c r="B1071" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1071">
@@ -14451,7 +14451,7 @@
     <row r="1075">
       <c r="B1075" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1075">
@@ -14542,7 +14542,7 @@
     <row r="1082">
       <c r="B1082" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1082">
@@ -14568,7 +14568,7 @@
     <row r="1084">
       <c r="B1084" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1084">
@@ -14646,7 +14646,7 @@
     <row r="1090">
       <c r="B1090" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1090">
@@ -14659,7 +14659,7 @@
     <row r="1091">
       <c r="B1091" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1091">
@@ -15131,7 +15131,7 @@
         <v>16</v>
       </c>
       <c r="D1126">
-        <v>0.0009505138715618131</v>
+        <v>0.0009505138715618132</v>
       </c>
     </row>
     <row r="1127">
@@ -15358,7 +15358,7 @@
     <row r="1144">
       <c r="B1144" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1144">
@@ -15849,7 +15849,7 @@
     <row r="1181">
       <c r="B1181" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1181">
@@ -15971,7 +15971,7 @@
     <row r="1190">
       <c r="B1190" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1190">
@@ -16023,7 +16023,7 @@
     <row r="1194">
       <c r="B1194" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1194">
@@ -16062,7 +16062,7 @@
     <row r="1197">
       <c r="B1197" t="inlineStr">
         <is>
-          <t>Muñoz de Domingo Arenas</t>
+          <t>Muñoz De Domingo Arenas</t>
         </is>
       </c>
       <c r="C1197">
@@ -16075,7 +16075,7 @@
     <row r="1198">
       <c r="B1198" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1198">
@@ -16114,7 +16114,7 @@
     <row r="1201">
       <c r="B1201" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1201">
@@ -16127,7 +16127,7 @@
     <row r="1202">
       <c r="B1202" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1202">
@@ -16166,7 +16166,7 @@
     <row r="1205">
       <c r="B1205" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1205">
@@ -16179,7 +16179,7 @@
     <row r="1206">
       <c r="B1206" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1206">
@@ -16340,7 +16340,7 @@
     <row r="1218">
       <c r="B1218" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1218">
@@ -16379,7 +16379,7 @@
     <row r="1221">
       <c r="B1221" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1221">
@@ -16470,7 +16470,7 @@
     <row r="1228">
       <c r="B1228" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1228">
@@ -16509,7 +16509,7 @@
     <row r="1231">
       <c r="B1231" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1231">
@@ -16665,7 +16665,7 @@
     <row r="1243">
       <c r="B1243" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1243">
@@ -16678,7 +16678,7 @@
     <row r="1244">
       <c r="B1244" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1244">
@@ -16834,7 +16834,7 @@
     <row r="1256">
       <c r="B1256" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1256">
@@ -16873,7 +16873,7 @@
     <row r="1259">
       <c r="B1259" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1259">
@@ -16886,7 +16886,7 @@
     <row r="1260">
       <c r="B1260" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1260">
@@ -17055,7 +17055,7 @@
     <row r="1273">
       <c r="B1273" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1273">
@@ -17068,7 +17068,7 @@
     <row r="1274">
       <c r="B1274" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1274">
@@ -17198,7 +17198,7 @@
     <row r="1284">
       <c r="B1284" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1284">
@@ -17211,7 +17211,7 @@
     <row r="1285">
       <c r="B1285" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1285">
@@ -17257,13 +17257,13 @@
         <v>16</v>
       </c>
       <c r="D1288">
-        <v>0.0009505138715618131</v>
+        <v>0.0009505138715618132</v>
       </c>
     </row>
     <row r="1289">
       <c r="B1289" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1289">
@@ -17406,7 +17406,7 @@
     <row r="1300">
       <c r="B1300" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1300">
@@ -17692,7 +17692,7 @@
     <row r="1322">
       <c r="B1322" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1322">
@@ -18079,7 +18079,7 @@
     <row r="1351">
       <c r="B1351" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1351">
@@ -18105,7 +18105,7 @@
     <row r="1353">
       <c r="B1353" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1353">
@@ -18131,7 +18131,7 @@
     <row r="1355">
       <c r="B1355" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1355">
@@ -18261,7 +18261,7 @@
     <row r="1365">
       <c r="B1365" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1365">
@@ -18339,7 +18339,7 @@
     <row r="1371">
       <c r="B1371" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1371">
@@ -18404,7 +18404,7 @@
     <row r="1376">
       <c r="B1376" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1376">
@@ -18417,7 +18417,7 @@
     <row r="1377">
       <c r="B1377" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1377">
@@ -18430,7 +18430,7 @@
     <row r="1378">
       <c r="B1378" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1378">
@@ -18573,7 +18573,7 @@
     <row r="1389">
       <c r="B1389" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1389">
@@ -18586,7 +18586,7 @@
     <row r="1390">
       <c r="B1390" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1390">
@@ -18599,7 +18599,7 @@
     <row r="1391">
       <c r="B1391" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1391">
@@ -18625,7 +18625,7 @@
     <row r="1393">
       <c r="B1393" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1393">
@@ -18698,41 +18698,6 @@
       </c>
       <c r="D1398">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1400">
-      <c r="A1400" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 826,856</t>
-        </is>
-      </c>
-    </row>
-    <row r="1401">
-      <c r="A1401" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1402">
-      <c r="A1402" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1403">
-      <c r="A1403" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1404">
-      <c r="A1404" t="inlineStr">
-        <is>
-          <t>Junio de 2018</t>
-        </is>
       </c>
     </row>
   </sheetData>
